--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H2">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I2">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J2">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.39436532957675</v>
+        <v>8.226432000000001</v>
       </c>
       <c r="N2">
-        <v>6.39436532957675</v>
+        <v>24.679296</v>
       </c>
       <c r="O2">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="P2">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="Q2">
-        <v>2.354864509592529</v>
+        <v>3.865156169472</v>
       </c>
       <c r="R2">
-        <v>2.354864509592529</v>
+        <v>34.786405525248</v>
       </c>
       <c r="S2">
-        <v>0.0003757629710291401</v>
+        <v>0.0005647827056433397</v>
       </c>
       <c r="T2">
-        <v>0.0003757629710291401</v>
+        <v>0.0005647827056433397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H3">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I3">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J3">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.1275680862786</v>
+        <v>20.15320433333333</v>
       </c>
       <c r="N3">
-        <v>20.1275680862786</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O3">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966515</v>
       </c>
       <c r="P3">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966514</v>
       </c>
       <c r="Q3">
-        <v>7.412415979979984</v>
+        <v>9.468902443199331</v>
       </c>
       <c r="R3">
-        <v>7.412415979979984</v>
+        <v>85.22012198879398</v>
       </c>
       <c r="S3">
-        <v>0.001182790534145469</v>
+        <v>0.001383610934942764</v>
       </c>
       <c r="T3">
-        <v>0.001182790534145469</v>
+        <v>0.001383610934942764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H4">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I4">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J4">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5469392598673</v>
+        <v>15.64009466666667</v>
       </c>
       <c r="N4">
-        <v>12.5469392598673</v>
+        <v>46.920284</v>
       </c>
       <c r="O4">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="P4">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="Q4">
-        <v>4.620684062327474</v>
+        <v>7.348435918754667</v>
       </c>
       <c r="R4">
-        <v>4.620684062327474</v>
+        <v>66.135923268792</v>
       </c>
       <c r="S4">
-        <v>0.0007373171426102997</v>
+        <v>0.001073765027457587</v>
       </c>
       <c r="T4">
-        <v>0.0007373171426102997</v>
+        <v>0.001073765027457586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H5">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I5">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J5">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6329571539745</v>
+        <v>13.81253266666666</v>
       </c>
       <c r="N5">
-        <v>13.6329571539745</v>
+        <v>41.43759799999999</v>
       </c>
       <c r="O5">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="P5">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="Q5">
-        <v>5.020633840577748</v>
+        <v>6.489763223302665</v>
       </c>
       <c r="R5">
-        <v>5.020633840577748</v>
+        <v>58.40786900972399</v>
       </c>
       <c r="S5">
-        <v>0.0008011366601772673</v>
+        <v>0.0009482944211131888</v>
       </c>
       <c r="T5">
-        <v>0.0008011366601772673</v>
+        <v>0.0009482944211131888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H6">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I6">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J6">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.8540170636126</v>
+        <v>13.92712666666667</v>
       </c>
       <c r="N6">
-        <v>13.8540170636126</v>
+        <v>41.78138</v>
       </c>
       <c r="O6">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="P6">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="Q6">
-        <v>5.102043974167183</v>
+        <v>6.543604755826666</v>
       </c>
       <c r="R6">
-        <v>5.102043974167183</v>
+        <v>58.89244280243999</v>
       </c>
       <c r="S6">
-        <v>0.0008141271798206833</v>
+        <v>0.0009561618306256596</v>
       </c>
       <c r="T6">
-        <v>0.0008141271798206833</v>
+        <v>0.0009561618306256596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H7">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I7">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J7">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.47160381452622</v>
+        <v>6.823240000000001</v>
       </c>
       <c r="N7">
-        <v>6.47160381452622</v>
+        <v>20.46972</v>
       </c>
       <c r="O7">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="P7">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="Q7">
-        <v>2.3833092664382</v>
+        <v>3.20587202104</v>
       </c>
       <c r="R7">
-        <v>2.3833092664382</v>
+        <v>28.85284818936</v>
       </c>
       <c r="S7">
-        <v>0.0003803018675554547</v>
+        <v>0.0004684470677511054</v>
       </c>
       <c r="T7">
-        <v>0.0003803018675554547</v>
+        <v>0.0004684470677511054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H8">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I8">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J8">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.39436532957675</v>
+        <v>8.226432000000001</v>
       </c>
       <c r="N8">
-        <v>6.39436532957675</v>
+        <v>24.679296</v>
       </c>
       <c r="O8">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="P8">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="Q8">
-        <v>15.56667933937636</v>
+        <v>23.845703419008</v>
       </c>
       <c r="R8">
-        <v>15.56667933937636</v>
+        <v>214.611330771072</v>
       </c>
       <c r="S8">
-        <v>0.002483956785536733</v>
+        <v>0.003484371731555603</v>
       </c>
       <c r="T8">
-        <v>0.002483956785536733</v>
+        <v>0.003484371731555603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H9">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I9">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J9">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.1275680862786</v>
+        <v>20.15320433333333</v>
       </c>
       <c r="N9">
-        <v>20.1275680862786</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O9">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966515</v>
       </c>
       <c r="P9">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966514</v>
       </c>
       <c r="Q9">
-        <v>48.99929580678227</v>
+        <v>58.41746865169899</v>
       </c>
       <c r="R9">
-        <v>48.99929580678227</v>
+        <v>525.757217865291</v>
       </c>
       <c r="S9">
-        <v>0.007818760228323333</v>
+        <v>0.008536052504819895</v>
       </c>
       <c r="T9">
-        <v>0.007818760228323333</v>
+        <v>0.008536052504819893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H10">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I10">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J10">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5469392598673</v>
+        <v>15.64009466666667</v>
       </c>
       <c r="N10">
-        <v>12.5469392598673</v>
+        <v>46.920284</v>
       </c>
       <c r="O10">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="P10">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="Q10">
-        <v>30.54473275800687</v>
+        <v>45.335457567332</v>
       </c>
       <c r="R10">
-        <v>30.54473275800687</v>
+        <v>408.019118105988</v>
       </c>
       <c r="S10">
-        <v>0.004873987222486007</v>
+        <v>0.006624488445949214</v>
       </c>
       <c r="T10">
-        <v>0.004873987222486007</v>
+        <v>0.006624488445949213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H11">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I11">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J11">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.6329571539745</v>
+        <v>13.81253266666666</v>
       </c>
       <c r="N11">
-        <v>13.6329571539745</v>
+        <v>41.43759799999999</v>
       </c>
       <c r="O11">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="P11">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="Q11">
-        <v>33.18857486633861</v>
+        <v>40.03796025235399</v>
       </c>
       <c r="R11">
-        <v>33.18857486633861</v>
+        <v>360.3416422711859</v>
       </c>
       <c r="S11">
-        <v>0.005295862010403459</v>
+        <v>0.0058504097967286</v>
       </c>
       <c r="T11">
-        <v>0.005295862010403459</v>
+        <v>0.0058504097967286</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H12">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I12">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J12">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.8540170636126</v>
+        <v>13.92712666666667</v>
       </c>
       <c r="N12">
-        <v>13.8540170636126</v>
+        <v>41.78138</v>
       </c>
       <c r="O12">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="P12">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="Q12">
-        <v>33.72673128230235</v>
+        <v>40.37013032774</v>
       </c>
       <c r="R12">
-        <v>33.72673128230235</v>
+        <v>363.33117294966</v>
       </c>
       <c r="S12">
-        <v>0.005381734999238777</v>
+        <v>0.005898947011186324</v>
       </c>
       <c r="T12">
-        <v>0.005381734999238777</v>
+        <v>0.005898947011186324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H13">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I13">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J13">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.47160381452622</v>
+        <v>6.823240000000001</v>
       </c>
       <c r="N13">
-        <v>6.47160381452622</v>
+        <v>20.46972</v>
       </c>
       <c r="O13">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="P13">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="Q13">
-        <v>15.75471156241908</v>
+        <v>19.77831426756</v>
       </c>
       <c r="R13">
-        <v>15.75471156241908</v>
+        <v>178.00482840804</v>
       </c>
       <c r="S13">
-        <v>0.002513960867084496</v>
+        <v>0.002890038424145419</v>
       </c>
       <c r="T13">
-        <v>0.002513960867084496</v>
+        <v>0.002890038424145419</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H14">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I14">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J14">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.39436532957675</v>
+        <v>8.226432000000001</v>
       </c>
       <c r="N14">
-        <v>6.39436532957675</v>
+        <v>24.679296</v>
       </c>
       <c r="O14">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="P14">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="Q14">
-        <v>28.35883616943349</v>
+        <v>36.616852456704</v>
       </c>
       <c r="R14">
-        <v>28.35883616943349</v>
+        <v>329.551672110336</v>
       </c>
       <c r="S14">
-        <v>0.004525186264664906</v>
+        <v>0.005350512138676487</v>
       </c>
       <c r="T14">
-        <v>0.004525186264664906</v>
+        <v>0.005350512138676488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H15">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I15">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J15">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.1275680862786</v>
+        <v>20.15320433333333</v>
       </c>
       <c r="N15">
-        <v>20.1275680862786</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O15">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966515</v>
       </c>
       <c r="P15">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966514</v>
       </c>
       <c r="Q15">
-        <v>89.26521655053362</v>
+        <v>89.70437117859531</v>
       </c>
       <c r="R15">
-        <v>89.26521655053362</v>
+        <v>807.3393406073577</v>
       </c>
       <c r="S15">
-        <v>0.01424394602914632</v>
+        <v>0.01310774396709625</v>
       </c>
       <c r="T15">
-        <v>0.01424394602914632</v>
+        <v>0.01310774396709625</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H16">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I16">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J16">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.5469392598673</v>
+        <v>15.64009466666667</v>
       </c>
       <c r="N16">
-        <v>12.5469392598673</v>
+        <v>46.920284</v>
       </c>
       <c r="O16">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="P16">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="Q16">
-        <v>55.64533406507159</v>
+        <v>69.61596945288265</v>
       </c>
       <c r="R16">
-        <v>55.64533406507159</v>
+        <v>626.5437250759439</v>
       </c>
       <c r="S16">
-        <v>0.008879260767244043</v>
+        <v>0.01017239507529502</v>
       </c>
       <c r="T16">
-        <v>0.008879260767244043</v>
+        <v>0.01017239507529502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H17">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I17">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J17">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.6329571539745</v>
+        <v>13.81253266666666</v>
       </c>
       <c r="N17">
-        <v>13.6329571539745</v>
+        <v>41.43759799999999</v>
       </c>
       <c r="O17">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="P17">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="Q17">
-        <v>60.4617938618874</v>
+        <v>61.48126802831864</v>
       </c>
       <c r="R17">
-        <v>60.4617938618874</v>
+        <v>553.3314122548678</v>
       </c>
       <c r="S17">
-        <v>0.009647817614451817</v>
+        <v>0.00898373969405758</v>
       </c>
       <c r="T17">
-        <v>0.009647817614451817</v>
+        <v>0.008983739694057582</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H18">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I18">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J18">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.8540170636126</v>
+        <v>13.92712666666667</v>
       </c>
       <c r="N18">
-        <v>13.8540170636126</v>
+        <v>41.78138</v>
       </c>
       <c r="O18">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="P18">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="Q18">
-        <v>61.44218854344552</v>
+        <v>61.99133990278665</v>
       </c>
       <c r="R18">
-        <v>61.44218854344552</v>
+        <v>557.9220591250798</v>
       </c>
       <c r="S18">
-        <v>0.00980425804523787</v>
+        <v>0.00905827219952526</v>
       </c>
       <c r="T18">
-        <v>0.00980425804523787</v>
+        <v>0.009058272199525262</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H19">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I19">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J19">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.47160381452622</v>
+        <v>6.823240000000001</v>
       </c>
       <c r="N19">
-        <v>6.47160381452622</v>
+        <v>20.46972</v>
       </c>
       <c r="O19">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="P19">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="Q19">
-        <v>28.70138674760045</v>
+        <v>30.37107367528</v>
       </c>
       <c r="R19">
-        <v>28.70138674760045</v>
+        <v>273.33966307752</v>
       </c>
       <c r="S19">
-        <v>0.004579846659118784</v>
+        <v>0.004437869108393889</v>
       </c>
       <c r="T19">
-        <v>0.004579846659118784</v>
+        <v>0.004437869108393889</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H20">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I20">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J20">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.39436532957675</v>
+        <v>8.226432000000001</v>
       </c>
       <c r="N20">
-        <v>6.39436532957675</v>
+        <v>24.679296</v>
       </c>
       <c r="O20">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="P20">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="Q20">
-        <v>502.4553612592715</v>
+        <v>652.097081294208</v>
       </c>
       <c r="R20">
-        <v>502.4553612592715</v>
+        <v>5868.873731647872</v>
       </c>
       <c r="S20">
-        <v>0.08017621336056113</v>
+        <v>0.09528545232514585</v>
       </c>
       <c r="T20">
-        <v>0.08017621336056113</v>
+        <v>0.09528545232514586</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H21">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I21">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J21">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.1275680862786</v>
+        <v>20.15320433333333</v>
       </c>
       <c r="N21">
-        <v>20.1275680862786</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O21">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966515</v>
       </c>
       <c r="P21">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966514</v>
       </c>
       <c r="Q21">
-        <v>1581.580653092134</v>
+        <v>1597.514660607716</v>
       </c>
       <c r="R21">
-        <v>1581.580653092134</v>
+        <v>14377.63194546944</v>
       </c>
       <c r="S21">
-        <v>0.2523709719634537</v>
+        <v>0.2334313576897926</v>
       </c>
       <c r="T21">
-        <v>0.2523709719634537</v>
+        <v>0.2334313576897926</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H22">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I22">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J22">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.5469392598673</v>
+        <v>15.64009466666667</v>
       </c>
       <c r="N22">
-        <v>12.5469392598673</v>
+        <v>46.920284</v>
       </c>
       <c r="O22">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="P22">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="Q22">
-        <v>985.911278693244</v>
+        <v>1239.767141246465</v>
       </c>
       <c r="R22">
-        <v>985.911278693244</v>
+        <v>11157.90427121819</v>
       </c>
       <c r="S22">
-        <v>0.1573207077281128</v>
+        <v>0.1811567268435981</v>
       </c>
       <c r="T22">
-        <v>0.1573207077281128</v>
+        <v>0.1811567268435981</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H23">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I23">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J23">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.6329571539745</v>
+        <v>13.81253266666666</v>
       </c>
       <c r="N23">
-        <v>13.6329571539745</v>
+        <v>41.43759799999999</v>
       </c>
       <c r="O23">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="P23">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="Q23">
-        <v>1071.248209755609</v>
+        <v>1094.899008125787</v>
       </c>
       <c r="R23">
-        <v>1071.248209755609</v>
+        <v>9854.091073132084</v>
       </c>
       <c r="S23">
-        <v>0.1709378218439698</v>
+        <v>0.1599883671194494</v>
       </c>
       <c r="T23">
-        <v>0.1709378218439698</v>
+        <v>0.1599883671194494</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H24">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I24">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J24">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.8540170636126</v>
+        <v>13.92712666666667</v>
       </c>
       <c r="N24">
-        <v>13.8540170636126</v>
+        <v>41.78138</v>
       </c>
       <c r="O24">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="P24">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="Q24">
-        <v>1088.618618081106</v>
+        <v>1103.982704792073</v>
       </c>
       <c r="R24">
-        <v>1088.618618081106</v>
+        <v>9935.84434312866</v>
       </c>
       <c r="S24">
-        <v>0.1737095975507207</v>
+        <v>0.1613156911797161</v>
       </c>
       <c r="T24">
-        <v>0.1737095975507207</v>
+        <v>0.1613156911797161</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H25">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I25">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J25">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.47160381452622</v>
+        <v>6.823240000000001</v>
       </c>
       <c r="N25">
-        <v>6.47160381452622</v>
+        <v>20.46972</v>
       </c>
       <c r="O25">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="P25">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="Q25">
-        <v>508.5245939130418</v>
+        <v>540.8681295815601</v>
       </c>
       <c r="R25">
-        <v>508.5245939130418</v>
+        <v>4867.81316623404</v>
       </c>
       <c r="S25">
-        <v>0.08114467370490701</v>
+        <v>0.07903250275733492</v>
       </c>
       <c r="T25">
-        <v>0.08114467370490701</v>
+        <v>0.07903250275733492</v>
       </c>
     </row>
   </sheetData>
